--- a/grades-data.csv.xlsx
+++ b/grades-data.csv.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
